--- a/plots/basic_stats/two_var_stats/allmus_size_vs_accreditation-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_accreditation-PC.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.877</v>
+        <v>15.394</v>
       </c>
       <c r="C2">
-        <v>42.971</v>
+        <v>41.996</v>
       </c>
       <c r="D2">
-        <v>58.848</v>
+        <v>57.39</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.852</v>
+        <v>15.252</v>
       </c>
       <c r="C3">
-        <v>9.148</v>
+        <v>9.057</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24.309</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>9.771000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C4">
-        <v>3.365</v>
+        <v>3.429</v>
       </c>
       <c r="D4">
-        <v>13.136</v>
+        <v>12.911</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.299</v>
+        <v>0.26</v>
       </c>
       <c r="C5">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D5">
-        <v>0.324</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.224</v>
+        <v>0.307</v>
       </c>
       <c r="C6">
-        <v>2.468</v>
+        <v>4.8</v>
       </c>
       <c r="D6">
-        <v>2.692</v>
+        <v>5.107</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>42.023</v>
+        <v>40.695</v>
       </c>
       <c r="C7">
-        <v>57.977</v>
+        <v>59.306</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>100.001</v>
       </c>
     </row>
   </sheetData>
